--- a/周报/罗永鹏周报20150902.xlsx
+++ b/周报/罗永鹏周报20150902.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="2790" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="4.17" sheetId="5" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
